--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04023833333333333</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N2">
-        <v>0.120715</v>
+        <v>101.839199</v>
       </c>
       <c r="O2">
-        <v>0.001153919673903629</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="P2">
-        <v>0.001153919673903629</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="Q2">
-        <v>0.4206883681544444</v>
+        <v>48.19000344920299</v>
       </c>
       <c r="R2">
-        <v>3.786195313389999</v>
+        <v>433.7100310428269</v>
       </c>
       <c r="S2">
-        <v>1.552868187971342E-05</v>
+        <v>0.001801826423973044</v>
       </c>
       <c r="T2">
-        <v>1.552868187971342E-05</v>
+        <v>0.001801826423973044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.94639966666667</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N3">
-        <v>101.839199</v>
+        <v>2.653087</v>
       </c>
       <c r="O3">
-        <v>0.9734851120464462</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="P3">
-        <v>0.9734851120464463</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="Q3">
-        <v>354.9067343864949</v>
+        <v>1.255432809139</v>
       </c>
       <c r="R3">
-        <v>3194.160609478454</v>
+        <v>11.298895282251</v>
       </c>
       <c r="S3">
-        <v>0.01310051380653464</v>
+        <v>4.694068991743908E-05</v>
       </c>
       <c r="T3">
-        <v>0.01310051380653464</v>
+        <v>4.694068991743908E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>2206.497925</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8843623333333334</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N4">
-        <v>2.653087</v>
+        <v>101.839199</v>
       </c>
       <c r="O4">
-        <v>0.02536096827965005</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="P4">
-        <v>0.02536096827965006</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="Q4">
-        <v>9.24593331898911</v>
+        <v>24967.55347524023</v>
       </c>
       <c r="R4">
-        <v>83.21339987090199</v>
+        <v>224707.9812771621</v>
       </c>
       <c r="S4">
-        <v>0.0003412910079294473</v>
+        <v>0.9335379616867799</v>
       </c>
       <c r="T4">
-        <v>0.0003412910079294473</v>
+        <v>0.9335379616867799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04023833333333333</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N5">
-        <v>0.120715</v>
+        <v>2.653087</v>
       </c>
       <c r="O5">
-        <v>0.001153919673903629</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="P5">
-        <v>0.001153919673903629</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="Q5">
-        <v>29.59526633515278</v>
+        <v>650.4478844827195</v>
       </c>
       <c r="R5">
-        <v>266.357397016375</v>
+        <v>5854.030960344476</v>
       </c>
       <c r="S5">
-        <v>0.001092436850774202</v>
+        <v>0.02432027602807141</v>
       </c>
       <c r="T5">
-        <v>0.001092436850774202</v>
+        <v>0.02432027602807141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>735.4993083333334</v>
+        <v>30.939307</v>
       </c>
       <c r="H6">
-        <v>2206.497925</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +800,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.94639966666667</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N6">
         <v>101.839199</v>
       </c>
       <c r="O6">
-        <v>0.9734851120464462</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="P6">
-        <v>0.9734851120464463</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="Q6">
-        <v>24967.55347524023</v>
+        <v>1050.278080831698</v>
       </c>
       <c r="R6">
-        <v>224707.9812771621</v>
+        <v>9452.50272748528</v>
       </c>
       <c r="S6">
-        <v>0.9216161524328152</v>
+        <v>0.0392699452814326</v>
       </c>
       <c r="T6">
-        <v>0.9216161524328152</v>
+        <v>0.0392699452814326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>735.4993083333334</v>
+        <v>30.939307</v>
       </c>
       <c r="H7">
-        <v>2206.497925</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>2.653087</v>
       </c>
       <c r="O7">
-        <v>0.02536096827965005</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="P7">
-        <v>0.02536096827965006</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="Q7">
-        <v>650.4478844827195</v>
+        <v>27.36155773023634</v>
       </c>
       <c r="R7">
-        <v>5854.030960344476</v>
+        <v>246.254019572127</v>
       </c>
       <c r="S7">
-        <v>0.02400969230924057</v>
+        <v>0.001023049889825628</v>
       </c>
       <c r="T7">
-        <v>0.02400969230924058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>30.939307</v>
-      </c>
-      <c r="H8">
-        <v>92.817921</v>
-      </c>
-      <c r="I8">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="J8">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04023833333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.120715</v>
-      </c>
-      <c r="O8">
-        <v>0.001153919673903629</v>
-      </c>
-      <c r="P8">
-        <v>0.001153919673903629</v>
-      </c>
-      <c r="Q8">
-        <v>1.244946148168333</v>
-      </c>
-      <c r="R8">
-        <v>11.204515333515</v>
-      </c>
-      <c r="S8">
-        <v>4.595414124971302E-05</v>
-      </c>
-      <c r="T8">
-        <v>4.595414124971302E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>30.939307</v>
-      </c>
-      <c r="H9">
-        <v>92.817921</v>
-      </c>
-      <c r="I9">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="J9">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>33.94639966666667</v>
-      </c>
-      <c r="N9">
-        <v>101.839199</v>
-      </c>
-      <c r="O9">
-        <v>0.9734851120464462</v>
-      </c>
-      <c r="P9">
-        <v>0.9734851120464463</v>
-      </c>
-      <c r="Q9">
-        <v>1050.278080831698</v>
-      </c>
-      <c r="R9">
-        <v>9452.50272748528</v>
-      </c>
-      <c r="S9">
-        <v>0.03876844580709633</v>
-      </c>
-      <c r="T9">
-        <v>0.03876844580709633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>30.939307</v>
-      </c>
-      <c r="H10">
-        <v>92.817921</v>
-      </c>
-      <c r="I10">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="J10">
-        <v>0.03982438491082608</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.8843623333333334</v>
-      </c>
-      <c r="N10">
-        <v>2.653087</v>
-      </c>
-      <c r="O10">
-        <v>0.02536096827965005</v>
-      </c>
-      <c r="P10">
-        <v>0.02536096827965006</v>
-      </c>
-      <c r="Q10">
-        <v>27.36155773023633</v>
-      </c>
-      <c r="R10">
-        <v>246.254019572127</v>
-      </c>
-      <c r="S10">
-        <v>0.001009984962480034</v>
-      </c>
-      <c r="T10">
-        <v>0.001009984962480034</v>
+        <v>0.001023049889825628</v>
       </c>
     </row>
   </sheetData>
